--- a/dbHelpers/share_alloc_info.xlsx
+++ b/dbHelpers/share_alloc_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E8D5E1-AAD2-4C34-BBB6-2A172CDB9BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDAE02-0143-42D1-BF7D-8F488652E3A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2162E19C-6D4F-48D4-98CF-6541F642E876}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="35">
   <si>
     <t>shares_peak</t>
   </si>
@@ -86,15 +86,70 @@
   <si>
     <t>constituent_name</t>
   </si>
+  <si>
+    <t>MOUDA_II</t>
+  </si>
+  <si>
+    <t>VSTPS V</t>
+  </si>
+  <si>
+    <t>MOUDA</t>
+  </si>
+  <si>
+    <t>VSTPS IV</t>
+  </si>
+  <si>
+    <t>SIPAT I</t>
+  </si>
+  <si>
+    <t>KSTPS7</t>
+  </si>
+  <si>
+    <t>TAPS-II</t>
+  </si>
+  <si>
+    <t>KAPS</t>
+  </si>
+  <si>
+    <t>SIPAT II</t>
+  </si>
+  <si>
+    <t>GANDHAR-APM</t>
+  </si>
+  <si>
+    <t>KAWAS-APM</t>
+  </si>
+  <si>
+    <t>VSTPS III</t>
+  </si>
+  <si>
+    <t>VSTPS II</t>
+  </si>
+  <si>
+    <t>VSTPS I</t>
+  </si>
+  <si>
+    <t>KSTPS I&amp;II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +171,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AB5F06-EA4E-4F28-8F2F-7334EBDECAB1}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,31 +875,5379 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>18.996400000000001</v>
+      <c r="D26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24.598600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12.0372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>48.543599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.3888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.6933999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1860999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>18.996400000000001</v>
+      <c r="D38" s="1">
+        <v>22.2577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>18.213799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6.6439000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>39.767800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.5901000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.71230000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.7107999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.1860999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>27.755299999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>31.651900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.5277000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5.1692999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.1860999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>17.2804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6.2549999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
+        <v>38.921900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.6116999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4.6143000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>27.824400000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6.2549999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>28.921900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.6116999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4.6143000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>27.272600000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>16.476299999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>15.8081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>27.631499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.5018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.69210000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4.5138999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2.2273999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>14.683299999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1">
+        <v>23.5139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.3916999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4.4992999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>25.3705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1">
+        <v>19.933199999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4.4443999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="1">
+        <v>40.991500000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.5477000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5.0172999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.71179999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.28470000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1">
+        <v>28.409099999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>24.4056</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="1">
+        <v>35.744999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3.9390000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.6739999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4.8295000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.7127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.28510000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>27.3001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16.323399999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="1">
+        <v>27.3598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1.4093</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.63970000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3.7789999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.55049999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1.8541000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>36.0518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1">
+        <v>17.8215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="1">
+        <v>30.4773</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1.9274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1">
+        <v>4.7664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1">
+        <v>8.9440000000000008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <v>28.497399999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>21.355499999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="1">
+        <v>31.134499999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1.8904000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="1">
+        <v>4.7257999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="1">
+        <v>12.3863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="1">
+        <v>26.599900000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="1">
+        <v>22.063400000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="1">
+        <v>27.438400000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1.4298999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.75180000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1">
+        <v>4.1490999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1.9474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.23130000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1">
+        <v>23.899899999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="1">
+        <v>29.363399999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="1">
+        <v>33.538400000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1.6298999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3.9491000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.57820000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1.9474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.23130000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1">
+        <v>18.254000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="1">
+        <v>32.666200000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="1">
+        <v>34.258000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="1">
+        <v>3.2286000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.66090000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="1">
+        <v>4.1191000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.60640000000000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1.1924999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1.0212000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2.0424000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.24260000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1">
+        <v>17.142900000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20.8536</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="1">
+        <v>30.218800000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="1">
+        <v>10.3073</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2.0848</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3.0133000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1.1673</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0.69610000000000005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1.3920999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.1653</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="1">
+        <v>24.832000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="1">
+        <v>12.037100000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="1">
+        <v>48.680999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1.6406000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1.8922000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="1">
+        <v>4.8135000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1.1860999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="2">
+        <v>22.2578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2">
+        <v>18.447099999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="2">
+        <v>6.6439000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2">
+        <v>39.905200000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1.5958000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1.2157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="2">
+        <v>3.8309000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1.1860999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>18.690100000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="1">
+        <v>27.988700000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="1">
+        <v>31.789300000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="1">
+        <v>1.5333000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1.5653999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="1">
+        <v>4.2893999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="1">
+        <v>17.5137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="1">
+        <v>6.2549999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="1">
+        <v>39.059399999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1.6173</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="1">
+        <v>1.1805000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="1">
+        <v>3.7343999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="1">
+        <v>28.0578</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="1">
+        <v>6.2549999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="1">
+        <v>29.0593</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="1">
+        <v>1.6173</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1.1805000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3.7343999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1">
+        <v>27.2727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="1">
+        <v>16.709599999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="1">
+        <v>15.8081</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="1">
+        <v>27.768899999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="1">
+        <v>1.5075000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="1">
+        <v>1.1955</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="1">
+        <v>3.6339999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="1">
+        <v>2.2273999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1">
+        <v>19.200099999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="1">
+        <v>14.916700000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="1">
+        <v>23.651299999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="1">
+        <v>1.3973</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1.1113999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3.6194000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="1">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="1">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1">
+        <v>25.3704</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="1">
+        <v>20.2804</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="1">
+        <v>4.4443999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="1">
+        <v>41.043500000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1.5538000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1.3148</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" s="1">
+        <v>4.0702999999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0.71179999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="1">
+        <v>0.28470000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="1">
+        <v>28.409199999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="1">
+        <v>24.7532</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="1">
+        <v>35.796900000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3.9451000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="1">
+        <v>2.2166000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3.8812000000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="1">
+        <v>0.7127</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="1">
+        <v>0.28510000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="1">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" s="1">
+        <v>16.517700000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="1">
+        <v>27.4742</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="1">
+        <v>1.4139999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="1">
+        <v>1.0588</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="1">
+        <v>3.0466000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="1">
+        <v>0.55049999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D336" s="1">
+        <v>1.8541000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="1">
+        <v>36.051699999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" s="1">
+        <v>17.825600000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="1">
+        <v>30.477900000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" s="1">
+        <v>1.9275</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" s="1">
+        <v>4.7728000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="1">
+        <v>8.9329000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="1">
+        <v>28.497399999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" s="1">
+        <v>21.359000000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="1">
+        <v>31.135000000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D354" s="1">
+        <v>1.8905000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" s="1">
+        <v>4.7312000000000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D356" s="1">
+        <v>12.376799999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D361" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1">
+        <v>26.599900000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" s="1">
+        <v>22.267499999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="1">
+        <v>27.558499999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="1">
+        <v>1.4348000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" s="1">
+        <v>3.3797999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="1">
+        <v>0.57820000000000005</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="1">
+        <v>0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1.9474</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D373" s="1">
+        <v>0.23130000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="1">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="1">
+        <v>29.567399999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" s="1">
+        <v>33.658499999999997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="1">
+        <v>1.6348</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" s="1">
+        <v>3.1798000000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" s="1">
+        <v>0.57820000000000005</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="1">
+        <v>1.1861999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D383" s="1">
+        <v>0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384" s="1">
+        <v>1.9474</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" s="1">
+        <v>0.23130000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1">
+        <v>18.253900000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="1">
+        <v>32.880200000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="1">
+        <v>34.384</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" s="1">
+        <v>3.2338</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391" s="1">
+        <v>1.1226</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D392" s="1">
+        <v>3.3123</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="1">
+        <v>0.60640000000000005</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="1">
+        <v>1.1924999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="1">
+        <v>1.0212000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" s="1">
+        <v>2.0424000000000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D397" s="1">
+        <v>0.24260000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398" s="1">
+        <v>17.142900000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20.999500000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D401" s="1">
+        <v>30.3047</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D402" s="1">
+        <v>10.3108</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" s="1">
+        <v>2.3994</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404" s="1">
+        <v>2.4634</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" s="1">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="1">
+        <v>1.1673</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="1">
+        <v>0.69610000000000005</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" s="1">
+        <v>1.3920999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D409" s="1">
+        <v>0.1653</v>
       </c>
     </row>
   </sheetData>

--- a/dbHelpers/share_alloc_info.xlsx
+++ b/dbHelpers/share_alloc_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDAE02-0143-42D1-BF7D-8F488652E3A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435CE82C-99EC-4D70-8930-0420AC25073A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2162E19C-6D4F-48D4-98CF-6541F642E876}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="36">
   <si>
     <t>shares_peak</t>
   </si>
@@ -131,13 +131,16 @@
   <si>
     <t>KSTPS I&amp;II</t>
   </si>
+  <si>
+    <t>LARA-I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +196,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AB5F06-EA4E-4F28-8F2F-7334EBDECAB1}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="D433" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,172 +3565,172 @@
         <v>0.1653</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.77959999999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="1">
+        <v>5.1764000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" s="1">
-        <v>24.832000000000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="1">
-        <v>12.037100000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D221" s="1">
-        <v>48.680999999999997</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.8025000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="1">
-        <v>1.6406000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.97550000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1">
-        <v>1.8922000000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.69389999999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D224" s="1">
-        <v>4.8135000000000003</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2761</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D225" s="1">
-        <v>0.6613</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10.3675</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="1">
+        <v>16.770499999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D226" s="1">
-        <v>1.1860999999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1">
+        <v>1.1251</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D227" s="1">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D228" s="1">
-        <v>2.2273000000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="1">
-        <v>0.26450000000000001</v>
+        <v>0.27760000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D230" s="2">
-        <v>22.2578</v>
+      <c r="D230" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D231" s="2">
-        <v>18.447099999999999</v>
+      <c r="D231" s="1">
+        <v>24.832000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="2">
-        <v>6.6439000000000004</v>
+      <c r="D232" s="1">
+        <v>12.037100000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="2">
-        <v>39.905200000000001</v>
+      <c r="D233" s="1">
+        <v>48.680999999999997</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,13 +3794,13 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D234" s="2">
-        <v>1.5958000000000001</v>
+      <c r="D234" s="1">
+        <v>1.6406000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D235" s="2">
-        <v>1.2157</v>
+      <c r="D235" s="1">
+        <v>1.8922000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,13 +3822,13 @@
         <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="2">
-        <v>3.8309000000000002</v>
+      <c r="D236" s="1">
+        <v>4.8135000000000003</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>12</v>
@@ -3847,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>13</v>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>14</v>
@@ -3875,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>15</v>
@@ -3889,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>16</v>
@@ -3903,13 +3906,13 @@
         <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D242" s="1">
-        <v>18.690100000000001</v>
+      <c r="D242" s="2">
+        <v>22.2578</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="1">
-        <v>27.988700000000001</v>
+      <c r="D243" s="2">
+        <v>18.447099999999999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="1">
-        <v>8.0399999999999991</v>
+      <c r="D244" s="2">
+        <v>6.6439000000000004</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="1">
-        <v>31.789300000000001</v>
+      <c r="D245" s="2">
+        <v>39.905200000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="1">
-        <v>1.5333000000000001</v>
+      <c r="D246" s="2">
+        <v>1.5958000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D247" s="1">
-        <v>1.5653999999999999</v>
+      <c r="D247" s="2">
+        <v>1.2157</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D248" s="1">
-        <v>4.2893999999999997</v>
+      <c r="D248" s="2">
+        <v>3.8309000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>12</v>
@@ -4015,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="1">
-        <v>1.1861999999999999</v>
+        <v>1.1860999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>14</v>
@@ -4043,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>15</v>
@@ -4057,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>16</v>
@@ -4071,13 +4074,13 @@
         <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D254" s="1">
-        <v>23.992000000000001</v>
+        <v>18.690100000000001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D255" s="1">
-        <v>17.5137</v>
+        <v>27.988700000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,13 +4102,13 @@
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="1">
-        <v>6.2549999999999999</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,13 +4116,13 @@
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="1">
-        <v>39.059399999999997</v>
+        <v>31.789300000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="1">
-        <v>1.6173</v>
+        <v>1.5333000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,13 +4144,13 @@
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="1">
-        <v>1.1805000000000001</v>
+        <v>1.5653999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,13 +4158,13 @@
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1">
-        <v>3.7343999999999999</v>
+        <v>4.2893999999999997</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>12</v>
@@ -4183,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>13</v>
@@ -4197,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>14</v>
@@ -4211,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>15</v>
@@ -4225,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>16</v>
@@ -4239,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>5</v>
@@ -4253,13 +4256,13 @@
         <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D267" s="1">
-        <v>28.0578</v>
+        <v>17.5137</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>7</v>
@@ -4281,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="1">
-        <v>29.0593</v>
+        <v>39.059399999999997</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>9</v>
@@ -4309,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>10</v>
@@ -4323,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>11</v>
@@ -4337,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>12</v>
@@ -4351,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>13</v>
@@ -4365,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>14</v>
@@ -4379,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>15</v>
@@ -4393,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>16</v>
@@ -4407,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D278" s="1">
-        <v>27.2727</v>
+        <v>23.992000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D279" s="1">
-        <v>16.709599999999998</v>
+        <v>28.0578</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,13 +4438,13 @@
         <v>1</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="1">
-        <v>15.8081</v>
+        <v>6.2549999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="1">
-        <v>27.768899999999999</v>
+        <v>29.0593</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="1">
-        <v>1.5075000000000001</v>
+        <v>1.6173</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,13 +4480,13 @@
         <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D283" s="1">
-        <v>1.1955</v>
+        <v>1.1805000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1">
-        <v>3.6339999999999999</v>
+        <v>3.7343999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>12</v>
@@ -4519,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>13</v>
@@ -4533,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>14</v>
@@ -4547,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D288" s="1">
-        <v>2.2273999999999998</v>
+        <v>2.2273000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>16</v>
@@ -4575,13 +4578,13 @@
         <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D290" s="1">
-        <v>19.200099999999999</v>
+        <v>27.2727</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,13 +4592,13 @@
         <v>1</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D291" s="1">
-        <v>14.916700000000001</v>
+        <v>16.709599999999998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,13 +4606,13 @@
         <v>1</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D292" s="1">
-        <v>15</v>
+        <v>15.8081</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,13 +4620,13 @@
         <v>1</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="1">
-        <v>23.651299999999999</v>
+        <v>27.768899999999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,13 +4634,13 @@
         <v>1</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="1">
-        <v>1.3973</v>
+        <v>1.5075000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,13 +4648,13 @@
         <v>1</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D295" s="1">
-        <v>1.1113999999999999</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,13 +4662,13 @@
         <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1">
-        <v>3.6194000000000002</v>
+        <v>3.6339999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>12</v>
@@ -4687,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>13</v>
@@ -4701,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>14</v>
@@ -4715,13 +4718,13 @@
         <v>1</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D300" s="1">
-        <v>2.2273000000000001</v>
+        <v>2.2273999999999998</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>16</v>
@@ -4743,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D302" s="1">
-        <v>25.3704</v>
+        <v>19.200099999999999</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,13 +4760,13 @@
         <v>1</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D303" s="1">
-        <v>20.2804</v>
+        <v>14.916700000000001</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,13 +4774,13 @@
         <v>1</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="1">
-        <v>4.4443999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,13 +4788,13 @@
         <v>1</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="1">
-        <v>41.043500000000002</v>
+        <v>23.651299999999999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,13 +4802,13 @@
         <v>1</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="1">
-        <v>1.5538000000000001</v>
+        <v>1.3973</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,13 +4816,13 @@
         <v>1</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D307" s="1">
-        <v>1.3148</v>
+        <v>1.1113999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,13 +4830,13 @@
         <v>1</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1">
-        <v>4.0702999999999996</v>
+        <v>3.6194000000000002</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -4841,13 +4844,13 @@
         <v>1</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="1">
-        <v>0.71179999999999999</v>
+        <v>0.6613</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D310" s="1">
-        <v>0</v>
+        <v>1.1861999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D311" s="1">
-        <v>0</v>
+        <v>1.1136999999999999</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,13 +4886,13 @@
         <v>1</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D312" s="1">
-        <v>0</v>
+        <v>2.2273000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,13 +4900,13 @@
         <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D313" s="1">
-        <v>0.28470000000000001</v>
+        <v>0.26450000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,13 +4914,13 @@
         <v>1</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D314" s="1">
-        <v>28.409199999999998</v>
+        <v>25.3704</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D315" s="1">
-        <v>24.7532</v>
+        <v>20.2804</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="1">
-        <v>0</v>
+        <v>4.4443999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,13 +4956,13 @@
         <v>1</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="1">
-        <v>35.796900000000001</v>
+        <v>41.043500000000002</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,13 +4970,13 @@
         <v>1</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="1">
-        <v>3.9451000000000001</v>
+        <v>1.5538000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,13 +4984,13 @@
         <v>1</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D319" s="1">
-        <v>2.2166000000000001</v>
+        <v>1.3148</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,13 +4998,13 @@
         <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1">
-        <v>3.8812000000000002</v>
+        <v>4.0702999999999996</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D321" s="1">
-        <v>0.7127</v>
+        <v>0.71179999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5023,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>13</v>
@@ -5037,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>14</v>
@@ -5051,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>15</v>
@@ -5065,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D325" s="1">
-        <v>0.28510000000000002</v>
+        <v>0.28470000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,13 +5082,13 @@
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D326" s="1">
-        <v>27.3</v>
+        <v>28.409199999999998</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,13 +5096,13 @@
         <v>1</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D327" s="1">
-        <v>16.517700000000001</v>
+        <v>24.7532</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,13 +5110,13 @@
         <v>1</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="1">
-        <v>15.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,13 +5124,13 @@
         <v>1</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="1">
-        <v>27.4742</v>
+        <v>35.796900000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D330" s="1">
-        <v>1.4139999999999999</v>
+        <v>3.9451000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,13 +5152,13 @@
         <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D331" s="1">
-        <v>1.0588</v>
+        <v>2.2166000000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1">
-        <v>3.0466000000000002</v>
+        <v>3.8812000000000002</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D333" s="1">
-        <v>0.55049999999999999</v>
+        <v>0.7127</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,13 +5194,13 @@
         <v>1</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D334" s="1">
-        <v>1.1861999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,13 +5208,13 @@
         <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="1">
-        <v>0.92700000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,13 +5222,13 @@
         <v>1</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D336" s="1">
-        <v>1.8541000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D337" s="1">
-        <v>0.22020000000000001</v>
+        <v>0.28510000000000002</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,13 +5250,13 @@
         <v>1</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D338" s="1">
-        <v>36.051699999999997</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,13 +5264,13 @@
         <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D339" s="1">
-        <v>17.825600000000001</v>
+        <v>16.517700000000001</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,13 +5278,13 @@
         <v>1</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D340" s="1">
-        <v>0</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,13 +5292,13 @@
         <v>1</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="1">
-        <v>30.477900000000002</v>
+        <v>27.4742</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5303,13 +5306,13 @@
         <v>1</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="1">
-        <v>1.9275</v>
+        <v>1.4139999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,13 +5320,13 @@
         <v>1</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D343" s="1">
-        <v>4.7728000000000002</v>
+        <v>1.0588</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,13 +5334,13 @@
         <v>1</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D344" s="1">
-        <v>8.9329000000000001</v>
+        <v>3.0466000000000002</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D345" s="1">
-        <v>8.3000000000000001E-3</v>
+        <v>0.55049999999999999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,13 +5362,13 @@
         <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D346" s="1">
-        <v>0</v>
+        <v>1.1861999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D347" s="1">
-        <v>0</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,13 +5390,13 @@
         <v>1</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D348" s="1">
-        <v>0</v>
+        <v>1.8541000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,13 +5404,13 @@
         <v>1</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D349" s="1">
-        <v>3.3E-3</v>
+        <v>0.22020000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,13 +5418,13 @@
         <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D350" s="1">
-        <v>28.497399999999999</v>
+        <v>36.051699999999997</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,13 +5432,13 @@
         <v>1</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D351" s="1">
-        <v>21.359000000000002</v>
+        <v>17.825600000000001</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>7</v>
@@ -5457,13 +5460,13 @@
         <v>1</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="1">
-        <v>31.135000000000002</v>
+        <v>30.477900000000002</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,13 +5474,13 @@
         <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D354" s="1">
-        <v>1.8905000000000001</v>
+        <v>1.9275</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,13 +5488,13 @@
         <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D355" s="1">
-        <v>4.7312000000000003</v>
+        <v>4.7728000000000002</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,13 +5502,13 @@
         <v>1</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D356" s="1">
-        <v>12.376799999999999</v>
+        <v>8.9329000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,13 +5516,13 @@
         <v>1</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D357" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5527,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>13</v>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>14</v>
@@ -5555,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>15</v>
@@ -5569,13 +5572,13 @@
         <v>1</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D361" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5583,13 +5586,13 @@
         <v>1</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D362" s="1">
-        <v>26.599900000000002</v>
+        <v>28.497399999999999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,13 +5600,13 @@
         <v>1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D363" s="1">
-        <v>22.267499999999998</v>
+        <v>21.359000000000002</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,13 +5614,13 @@
         <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D364" s="1">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,13 +5628,13 @@
         <v>1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="1">
-        <v>27.558499999999999</v>
+        <v>31.135000000000002</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,13 +5642,13 @@
         <v>1</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D366" s="1">
-        <v>1.4348000000000001</v>
+        <v>1.8905000000000001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,13 +5656,13 @@
         <v>1</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D367" s="1">
-        <v>1.1919999999999999</v>
+        <v>4.7312000000000003</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,13 +5670,13 @@
         <v>1</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D368" s="1">
-        <v>3.3797999999999999</v>
+        <v>12.376799999999999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,13 +5684,13 @@
         <v>1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D369" s="1">
-        <v>0.57820000000000005</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -5695,13 +5698,13 @@
         <v>1</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D370" s="1">
-        <v>1.1861999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,13 +5712,13 @@
         <v>1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D371" s="1">
-        <v>0.97370000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -5723,13 +5726,13 @@
         <v>1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D372" s="1">
-        <v>1.9474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,13 +5740,13 @@
         <v>1</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D373" s="1">
-        <v>0.23130000000000001</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D374" s="1">
-        <v>23.9</v>
+        <v>26.599900000000002</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,13 +5768,13 @@
         <v>1</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D375" s="1">
-        <v>29.567399999999999</v>
+        <v>22.267499999999998</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -5779,13 +5782,13 @@
         <v>1</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D376" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,13 +5796,13 @@
         <v>1</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D377" s="1">
-        <v>33.658499999999997</v>
+        <v>27.558499999999999</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,13 +5810,13 @@
         <v>1</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D378" s="1">
-        <v>1.6348</v>
+        <v>1.4348000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,13 +5824,13 @@
         <v>1</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D379" s="1">
-        <v>0.99199999999999999</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -5835,13 +5838,13 @@
         <v>1</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D380" s="1">
-        <v>3.1798000000000002</v>
+        <v>3.3797999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>12</v>
@@ -5863,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>13</v>
@@ -5877,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>14</v>
@@ -5891,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>15</v>
@@ -5905,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>16</v>
@@ -5919,13 +5922,13 @@
         <v>1</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D386" s="1">
-        <v>18.253900000000002</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D387" s="1">
-        <v>32.880200000000002</v>
+        <v>29.567399999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>7</v>
@@ -5961,13 +5964,13 @@
         <v>1</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D389" s="1">
-        <v>34.384</v>
+        <v>33.658499999999997</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +5978,13 @@
         <v>1</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="1">
-        <v>3.2338</v>
+        <v>1.6348</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,13 +5992,13 @@
         <v>1</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D391" s="1">
-        <v>1.1226</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D392" s="1">
-        <v>3.3123</v>
+        <v>3.1798000000000002</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,13 +6020,13 @@
         <v>1</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D393" s="1">
-        <v>0.60640000000000005</v>
+        <v>0.57820000000000005</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,13 +6034,13 @@
         <v>1</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D394" s="1">
-        <v>1.1924999999999999</v>
+        <v>1.1861999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,13 +6048,13 @@
         <v>1</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D395" s="1">
-        <v>1.0212000000000001</v>
+        <v>0.97370000000000001</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6059,13 +6062,13 @@
         <v>1</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D396" s="1">
-        <v>2.0424000000000002</v>
+        <v>1.9474</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6073,13 +6076,13 @@
         <v>1</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D397" s="1">
-        <v>0.24260000000000001</v>
+        <v>0.23130000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -6087,13 +6090,13 @@
         <v>1</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D398" s="1">
-        <v>17.142900000000001</v>
+        <v>18.253900000000002</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D399" s="1">
-        <v>20.999500000000001</v>
+        <v>32.880200000000002</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -6115,13 +6118,13 @@
         <v>1</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D400" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,13 +6132,13 @@
         <v>1</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D401" s="1">
-        <v>30.3047</v>
+        <v>34.384</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,13 +6146,13 @@
         <v>1</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D402" s="1">
-        <v>10.3108</v>
+        <v>3.2338</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6157,13 +6160,13 @@
         <v>1</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D403" s="1">
-        <v>2.3994</v>
+        <v>1.1226</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6171,13 +6174,13 @@
         <v>1</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D404" s="1">
-        <v>2.4634</v>
+        <v>3.3123</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6185,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D405" s="1">
-        <v>0.4133</v>
+        <v>0.60640000000000005</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,13 +6202,13 @@
         <v>1</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D406" s="1">
-        <v>1.1673</v>
+        <v>1.1924999999999999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6213,13 +6216,13 @@
         <v>1</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D407" s="1">
-        <v>0.69610000000000005</v>
+        <v>1.0212000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -6227,13 +6230,13 @@
         <v>1</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D408" s="1">
-        <v>1.3920999999999999</v>
+        <v>2.0424000000000002</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,13 +6244,349 @@
         <v>1</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D409" s="1">
+        <v>0.24260000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" s="1">
+        <v>17.142900000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20.999500000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="1">
+        <v>30.3047</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D414" s="1">
+        <v>10.3108</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D415" s="1">
+        <v>2.3994</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D416" s="1">
+        <v>2.4634</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" s="1">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" s="1">
+        <v>1.1673</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="1">
+        <v>0.69610000000000005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" s="1">
+        <v>1.3920999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D421" s="1">
         <v>0.1653</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B422" t="s">
+        <v>35</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B423" t="s">
+        <v>35</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423">
+        <v>1.3405</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>35</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D424">
+        <v>4.1961000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B425" t="s">
+        <v>35</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D425">
+        <v>9.8025000000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B426" t="s">
+        <v>35</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B427" t="s">
+        <v>35</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427">
+        <v>0.69389999999999996</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B428" t="s">
+        <v>35</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428">
+        <v>2.2761</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B429" t="s">
+        <v>35</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429">
+        <v>10.6318</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430">
+        <v>16.9115</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B431" t="s">
+        <v>35</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431">
+        <v>1.1251</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B432" t="s">
+        <v>35</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432">
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B433" t="s">
+        <v>35</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D433">
+        <v>0.27760000000000001</v>
       </c>
     </row>
   </sheetData>
